--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H2">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N2">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q2">
-        <v>126.9635076793375</v>
+        <v>332.2259656361823</v>
       </c>
       <c r="R2">
-        <v>126.9635076793375</v>
+        <v>2990.03369072564</v>
       </c>
       <c r="S2">
-        <v>0.01427131759675382</v>
+        <v>0.02494957157976048</v>
       </c>
       <c r="T2">
-        <v>0.01427131759675382</v>
+        <v>0.02494957157976049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H3">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N3">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q3">
-        <v>1174.747180879366</v>
+        <v>2754.527755275949</v>
       </c>
       <c r="R3">
-        <v>1174.747180879366</v>
+        <v>24790.74979748354</v>
       </c>
       <c r="S3">
-        <v>0.1320473135994577</v>
+        <v>0.2068600726830414</v>
       </c>
       <c r="T3">
-        <v>0.1320473135994577</v>
+        <v>0.2068600726830414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H4">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q4">
-        <v>1843.419901120451</v>
+        <v>4339.075724051611</v>
       </c>
       <c r="R4">
-        <v>1843.419901120451</v>
+        <v>39051.6815164645</v>
       </c>
       <c r="S4">
-        <v>0.2072093891696089</v>
+        <v>0.3258567708876169</v>
       </c>
       <c r="T4">
-        <v>0.2072093891696089</v>
+        <v>0.3258567708876169</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H5">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N5">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q5">
-        <v>130.7211849820193</v>
+        <v>148.710102167282</v>
       </c>
       <c r="R5">
-        <v>130.7211849820193</v>
+        <v>1338.390919505538</v>
       </c>
       <c r="S5">
-        <v>0.01469369885569105</v>
+        <v>0.01116786080085975</v>
       </c>
       <c r="T5">
-        <v>0.01469369885569105</v>
+        <v>0.01116786080085975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H6">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N6">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q6">
-        <v>1209.515602913899</v>
+        <v>1232.974379727677</v>
       </c>
       <c r="R6">
-        <v>1209.515602913899</v>
+        <v>11096.76941754909</v>
       </c>
       <c r="S6">
-        <v>0.135955453838037</v>
+        <v>0.09259415495751425</v>
       </c>
       <c r="T6">
-        <v>0.135955453838037</v>
+        <v>0.09259415495751425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H7">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q7">
-        <v>1897.978705050532</v>
+        <v>1942.245522560725</v>
       </c>
       <c r="R7">
-        <v>1897.978705050532</v>
+        <v>17480.20970304653</v>
       </c>
       <c r="S7">
-        <v>0.2133420648716045</v>
+        <v>0.1458591401722774</v>
       </c>
       <c r="T7">
-        <v>0.2133420648716045</v>
+        <v>0.1458591401722774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H8">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N8">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q8">
-        <v>101.4481069055895</v>
+        <v>114.8071159537489</v>
       </c>
       <c r="R8">
-        <v>101.4481069055895</v>
+        <v>1033.26404358374</v>
       </c>
       <c r="S8">
-        <v>0.01140326208453299</v>
+        <v>0.008621807605762779</v>
       </c>
       <c r="T8">
-        <v>0.01140326208453299</v>
+        <v>0.008621807605762779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H9">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N9">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q9">
-        <v>938.6624532608507</v>
+        <v>951.8804070362654</v>
       </c>
       <c r="R9">
-        <v>938.6624532608507</v>
+        <v>8566.92366332639</v>
       </c>
       <c r="S9">
-        <v>0.1055102385834114</v>
+        <v>0.07148450394371096</v>
       </c>
       <c r="T9">
-        <v>0.1055102385834114</v>
+        <v>0.07148450394371096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H10">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q10">
-        <v>1472.95441516219</v>
+        <v>1499.451642286195</v>
       </c>
       <c r="R10">
-        <v>1472.95441516219</v>
+        <v>13495.06478057575</v>
       </c>
       <c r="S10">
-        <v>0.1655672614009027</v>
+        <v>0.1126061173694561</v>
       </c>
       <c r="T10">
-        <v>0.1655672614009027</v>
+        <v>0.1126061173694561</v>
       </c>
     </row>
   </sheetData>
